--- a/SFDC 37 Testcases.xlsx
+++ b/SFDC 37 Testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="520" windowWidth="21760" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="450" yWindow="520" windowWidth="21760" windowHeight="12240" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SFDC Login" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="Leads" sheetId="5" r:id="rId5"/>
     <sheet name="Contacts" sheetId="6" r:id="rId6"/>
     <sheet name="RandomScenarios" sheetId="7" r:id="rId7"/>
+    <sheet name="NewTab" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="412">
   <si>
     <t>Test ID</t>
   </si>
@@ -1276,6 +1276,9 @@
   </si>
   <si>
     <t>About tab should be displayed</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -10273,7 +10276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -20065,36 +20068,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A50:B50"/>
@@ -20104,6 +20077,36 @@
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -24300,4 +24303,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>